--- a/BackTest/2019-11-02 BackTest BCH.xlsx
+++ b/BackTest/2019-11-02 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>18.75483953000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>28.74223953000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>319300</v>
@@ -521,7 +521,7 @@
         <v>41.39453953000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>319600</v>
@@ -562,7 +562,7 @@
         <v>21.77773953000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>320100</v>
@@ -603,7 +603,7 @@
         <v>33.93333953000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>319600</v>
@@ -644,7 +644,7 @@
         <v>36.11856737000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>320000</v>
@@ -685,7 +685,7 @@
         <v>98.94863500000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>320400</v>
@@ -726,7 +726,7 @@
         <v>266.4990079200001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>321400</v>
@@ -767,7 +767,7 @@
         <v>503.2501529900001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>322500</v>
@@ -808,9 +808,11 @@
         <v>267.05645299</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>323400</v>
+      </c>
       <c r="J11" t="n">
         <v>319300</v>
       </c>
@@ -1042,9 +1044,11 @@
         <v>967.64895299</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>319300</v>
+      </c>
       <c r="J17" t="n">
         <v>319300</v>
       </c>
@@ -1120,9 +1124,11 @@
         <v>909.9180529900001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>320700</v>
+      </c>
       <c r="J19" t="n">
         <v>319300</v>
       </c>
@@ -1159,9 +1165,11 @@
         <v>941.6077529900001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>320000</v>
+      </c>
       <c r="J20" t="n">
         <v>319300</v>
       </c>
@@ -1198,9 +1206,11 @@
         <v>1017.42335299</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>321000</v>
+      </c>
       <c r="J21" t="n">
         <v>319300</v>
       </c>
@@ -1237,9 +1247,11 @@
         <v>1041.48455299</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>321400</v>
+      </c>
       <c r="J22" t="n">
         <v>319300</v>
       </c>
@@ -1276,9 +1288,11 @@
         <v>944.3443529900001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>321800</v>
+      </c>
       <c r="J23" t="n">
         <v>319300</v>
       </c>
@@ -1315,9 +1329,11 @@
         <v>952.1273529900001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>320700</v>
+      </c>
       <c r="J24" t="n">
         <v>319300</v>
       </c>
@@ -1354,9 +1370,11 @@
         <v>921.5023529900001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>321200</v>
+      </c>
       <c r="J25" t="n">
         <v>319300</v>
       </c>
@@ -5956,9 +5974,11 @@
         <v>444.0229221599997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>320000</v>
+      </c>
       <c r="J143" t="n">
         <v>319300</v>
       </c>
@@ -5995,9 +6015,11 @@
         <v>444.0229221599997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>320400</v>
+      </c>
       <c r="J144" t="n">
         <v>319300</v>
       </c>
@@ -6034,9 +6056,11 @@
         <v>444.0229221599997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>320400</v>
+      </c>
       <c r="J145" t="n">
         <v>319300</v>
       </c>
@@ -6112,9 +6136,11 @@
         <v>472.9331221599996</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>320500</v>
+      </c>
       <c r="J147" t="n">
         <v>319300</v>
       </c>
@@ -6151,9 +6177,11 @@
         <v>475.7331221599997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>320100</v>
+      </c>
       <c r="J148" t="n">
         <v>319300</v>
       </c>
@@ -6190,9 +6218,11 @@
         <v>475.7331221599997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>320200</v>
+      </c>
       <c r="J149" t="n">
         <v>319300</v>
       </c>
@@ -6229,9 +6259,11 @@
         <v>475.7925221599996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>320200</v>
+      </c>
       <c r="J150" t="n">
         <v>319300</v>
       </c>
@@ -6268,9 +6300,11 @@
         <v>495.1323221599997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>320400</v>
+      </c>
       <c r="J151" t="n">
         <v>319300</v>
       </c>
@@ -6307,9 +6341,11 @@
         <v>495.1323221599997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>321100</v>
+      </c>
       <c r="J152" t="n">
         <v>319300</v>
       </c>
@@ -6346,9 +6382,11 @@
         <v>490.3323221599996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>321100</v>
+      </c>
       <c r="J153" t="n">
         <v>319300</v>
       </c>
@@ -6463,9 +6501,11 @@
         <v>470.6212221599997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>320700</v>
+      </c>
       <c r="J156" t="n">
         <v>319300</v>
       </c>
@@ -6502,9 +6542,11 @@
         <v>489.4989221599997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>320500</v>
+      </c>
       <c r="J157" t="n">
         <v>319300</v>
       </c>
@@ -6541,9 +6583,11 @@
         <v>548.1815221599996</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>320700</v>
+      </c>
       <c r="J158" t="n">
         <v>319300</v>
       </c>
@@ -6619,11 +6663,9 @@
         <v>504.5438221599996</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>320500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>319300</v>
       </c>
@@ -6660,7 +6702,7 @@
         <v>611.2067221599997</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>320500</v>
@@ -6740,9 +6782,11 @@
         <v>612.4425221599997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>320400</v>
+      </c>
       <c r="J163" t="n">
         <v>319300</v>
       </c>
@@ -6779,9 +6823,11 @@
         <v>636.4038221599998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>320600</v>
+      </c>
       <c r="J164" t="n">
         <v>319300</v>
       </c>
@@ -7286,11 +7332,9 @@
         <v>532.5996221599999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>320200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>319300</v>
       </c>
@@ -7327,11 +7371,9 @@
         <v>536.7323221599999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>320000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>319300</v>
       </c>
@@ -7368,7 +7410,7 @@
         <v>510.3352221599998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>320200</v>
@@ -7409,7 +7451,7 @@
         <v>510.3352221599998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>320000</v>
@@ -7450,7 +7492,7 @@
         <v>510.3352221599998</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>320000</v>
@@ -7491,7 +7533,7 @@
         <v>556.2017221599998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>320000</v>
@@ -7532,11 +7574,9 @@
         <v>555.7032221599998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>320100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>319300</v>
       </c>
@@ -7573,7 +7613,7 @@
         <v>548.0541024399997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>320000</v>
@@ -7614,7 +7654,7 @@
         <v>548.8263024399997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>319900</v>
@@ -7655,7 +7695,7 @@
         <v>548.8263024399997</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>320000</v>
@@ -7696,7 +7736,7 @@
         <v>548.8263024399997</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>320000</v>
@@ -7737,7 +7777,7 @@
         <v>548.7263024399997</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>320000</v>
@@ -7778,7 +7818,7 @@
         <v>548.7263024399997</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>319900</v>
@@ -7819,7 +7859,7 @@
         <v>549.0676024399997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>319900</v>
@@ -7860,7 +7900,7 @@
         <v>549.0574024399997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>320000</v>
@@ -7901,7 +7941,7 @@
         <v>549.0574024399997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>319900</v>
@@ -7942,7 +7982,7 @@
         <v>549.0574024399997</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>319900</v>
@@ -7983,7 +8023,7 @@
         <v>549.5232024399996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>319900</v>
@@ -8024,7 +8064,7 @@
         <v>549.5232024399996</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>320000</v>
@@ -8065,7 +8105,7 @@
         <v>549.5232024399996</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>320000</v>
@@ -8106,7 +8146,7 @@
         <v>548.2246024399997</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>320000</v>
@@ -8147,7 +8187,7 @@
         <v>548.2692024399996</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>319800</v>
@@ -8188,7 +8228,7 @@
         <v>542.7585024399996</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>320400</v>
@@ -8229,7 +8269,7 @@
         <v>542.7585024399996</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>320000</v>
@@ -8270,7 +8310,7 @@
         <v>544.2585024399996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>320000</v>
@@ -8311,7 +8351,7 @@
         <v>544.3257024399995</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>320500</v>
@@ -8352,7 +8392,7 @@
         <v>520.1124024399995</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>320600</v>
@@ -8393,7 +8433,7 @@
         <v>521.5452024399996</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>320300</v>
@@ -8434,7 +8474,7 @@
         <v>521.5452024399996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>320800</v>
@@ -8475,7 +8515,7 @@
         <v>513.8917024399996</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>320800</v>
@@ -8516,7 +8556,7 @@
         <v>527.3975024399996</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>320300</v>
@@ -8557,7 +8597,7 @@
         <v>523.9890024399996</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>320400</v>
@@ -8598,7 +8638,7 @@
         <v>519.5172024399996</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>320200</v>
@@ -8639,7 +8679,7 @@
         <v>534.5172024399996</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>320100</v>
@@ -8680,7 +8720,7 @@
         <v>530.5352024399996</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>320400</v>
@@ -8721,7 +8761,7 @@
         <v>542.7234024399996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>320100</v>
@@ -8762,7 +8802,7 @@
         <v>552.2845024399996</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>320700</v>
@@ -8803,7 +8843,7 @@
         <v>544.3185024399996</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>320900</v>
@@ -8844,7 +8884,7 @@
         <v>537.5172024399997</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>320800</v>
@@ -8885,7 +8925,7 @@
         <v>537.5172024399997</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>320700</v>
@@ -8926,9 +8966,11 @@
         <v>538.3229024399997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>320700</v>
+      </c>
       <c r="J217" t="n">
         <v>319300</v>
       </c>
@@ -8965,9 +9007,11 @@
         <v>551.4121024399997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>320800</v>
+      </c>
       <c r="J218" t="n">
         <v>319300</v>
       </c>
@@ -9004,9 +9048,11 @@
         <v>512.0503024399997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>321600</v>
+      </c>
       <c r="J219" t="n">
         <v>319300</v>
       </c>
@@ -9277,9 +9323,11 @@
         <v>520.2205024399997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>321400</v>
+      </c>
       <c r="J226" t="n">
         <v>319300</v>
       </c>
@@ -9316,9 +9364,11 @@
         <v>545.0649024399996</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>321900</v>
+      </c>
       <c r="J227" t="n">
         <v>319300</v>
       </c>
@@ -9355,9 +9405,11 @@
         <v>544.9519024399996</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>322000</v>
+      </c>
       <c r="J228" t="n">
         <v>319300</v>
       </c>
@@ -9433,9 +9485,11 @@
         <v>532.7693024399996</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>321700</v>
+      </c>
       <c r="J230" t="n">
         <v>319300</v>
       </c>
@@ -9472,9 +9526,11 @@
         <v>532.7693024399996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>322000</v>
+      </c>
       <c r="J231" t="n">
         <v>319300</v>
       </c>
@@ -9511,9 +9567,11 @@
         <v>521.5172024399996</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>322000</v>
+      </c>
       <c r="J232" t="n">
         <v>319300</v>
       </c>
@@ -9550,9 +9608,11 @@
         <v>521.5172024399996</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>321800</v>
+      </c>
       <c r="J233" t="n">
         <v>319300</v>
       </c>
@@ -9589,9 +9649,11 @@
         <v>536.1659024399995</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>321800</v>
+      </c>
       <c r="J234" t="n">
         <v>319300</v>
       </c>
@@ -9667,9 +9729,11 @@
         <v>516.8818024399995</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>323300</v>
+      </c>
       <c r="J236" t="n">
         <v>319300</v>
       </c>
@@ -9901,9 +9965,11 @@
         <v>515.2434024399995</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>323000</v>
+      </c>
       <c r="J242" t="n">
         <v>319300</v>
       </c>
@@ -12670,7 +12736,7 @@
         <v>559.7982263299996</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
@@ -12709,7 +12775,7 @@
         <v>559.9502263299996</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
@@ -12748,7 +12814,7 @@
         <v>543.1859822599996</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
@@ -12826,7 +12892,7 @@
         <v>502.4568822599996</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
@@ -12865,7 +12931,7 @@
         <v>507.6174822599996</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
@@ -30103,7 +30169,7 @@
         <v>851.7866231200004</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
@@ -30111,11 +30177,11 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L760" t="n">
-        <v>1.027258064516129</v>
+        <v>1</v>
       </c>
       <c r="M760" t="inlineStr"/>
     </row>
@@ -30145,8 +30211,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -30178,8 +30250,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -30211,8 +30289,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -30244,8 +30328,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -30277,8 +30367,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -30310,8 +30406,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -30343,8 +30445,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -30376,8 +30484,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -30409,8 +30523,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -30442,8 +30562,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -30475,8 +30601,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -30508,8 +30640,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -30541,8 +30679,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -30574,8 +30718,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -30607,8 +30757,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -30640,8 +30796,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -30673,8 +30835,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -30706,8 +30874,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -30739,8 +30913,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -30772,8 +30952,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -30805,8 +30991,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30838,8 +31030,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30868,11 +31066,17 @@
         <v>763.0470292200004</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30904,8 +31108,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30937,8 +31147,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -30970,8 +31186,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -31003,8 +31225,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -31036,8 +31264,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -31069,8 +31303,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -31102,8 +31342,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -31135,8 +31381,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -31168,8 +31420,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -31201,8 +31459,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -31234,8 +31498,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -31267,8 +31537,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -31300,8 +31576,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -31333,8 +31615,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -31366,8 +31654,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -31399,8 +31693,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -31432,8 +31732,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -31465,8 +31771,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -31498,8 +31810,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -31531,8 +31849,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -31564,8 +31888,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -31597,8 +31927,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -31630,8 +31966,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -31663,8 +32005,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -31696,8 +32044,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -31729,8 +32083,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -31762,8 +32122,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -31795,8 +32161,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -31828,8 +32200,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -31861,8 +32239,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -31894,8 +32278,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -31927,8 +32317,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -31960,8 +32356,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -31993,8 +32395,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -32026,8 +32434,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -32059,8 +32473,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -32092,8 +32512,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -32125,8 +32551,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -32158,8 +32590,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -32191,8 +32629,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -32224,8 +32668,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -32257,8 +32707,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -32290,8 +32746,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -32323,8 +32785,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -32356,8 +32824,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -32389,8 +32863,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -32422,8 +32902,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -32455,8 +32941,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -32488,8 +32980,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -32521,8 +33019,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -32554,8 +33058,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -32587,8 +33097,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -32620,8 +33136,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -32653,8 +33175,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -32686,8 +33214,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -32719,8 +33253,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -32752,8 +33292,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -32785,8 +33331,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -32818,8 +33370,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -32851,8 +33409,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -32884,8 +33448,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -32917,8 +33487,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -32950,8 +33526,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -32983,8 +33565,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -33016,8 +33604,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -33049,8 +33643,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -33082,8 +33682,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -33115,8 +33721,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -33148,8 +33760,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -33181,8 +33799,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -33214,8 +33838,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -33247,8 +33877,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -33280,8 +33916,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -33313,8 +33955,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -33346,8 +33994,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -33379,8 +34033,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -33412,8 +34072,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -33445,8 +34111,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -33478,8 +34150,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -33511,8 +34189,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -33544,8 +34228,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -33577,8 +34267,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -33610,8 +34306,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -33643,8 +34345,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -33676,8 +34384,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -33709,8 +34423,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -33742,8 +34462,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -33775,8 +34501,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -33808,8 +34540,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -33841,8 +34579,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -33874,8 +34618,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -33907,8 +34657,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -33940,8 +34696,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -33973,8 +34735,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -34006,8 +34774,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -34039,8 +34813,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -34072,8 +34852,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -34105,8 +34891,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -34138,8 +34930,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -34171,8 +34969,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -34204,8 +35008,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -34237,8 +35047,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -34270,8 +35086,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -34303,8 +35125,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -34336,8 +35164,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -34369,8 +35203,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -34402,8 +35242,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -34435,8 +35281,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -34468,8 +35320,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -34501,8 +35359,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -34534,8 +35398,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -34567,8 +35437,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -34600,8 +35476,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -34633,8 +35515,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -34666,8 +35554,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -34699,8 +35593,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -34732,8 +35632,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -34765,8 +35671,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -34798,8 +35710,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -34831,8 +35749,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -34864,8 +35788,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -34897,8 +35827,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -34930,8 +35866,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -34963,8 +35905,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -34996,8 +35944,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -35029,8 +35983,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -35059,11 +36019,17 @@
         <v>1084.07158669</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -35092,11 +36058,17 @@
         <v>1187.35998669</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -35128,8 +36100,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -35161,8 +36139,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -35194,8 +36178,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -35227,8 +36217,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -35260,8 +36256,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -35293,8 +36295,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -35326,8 +36334,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -35359,8 +36373,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -35392,8 +36412,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -35425,8 +36451,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -35458,8 +36490,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -35491,8 +36529,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -35524,8 +36568,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -35554,11 +36604,17 @@
         <v>1133.10948669</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -35590,8 +36646,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -35623,8 +36685,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -35656,8 +36724,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -35689,8 +36763,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -35722,8 +36802,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -35755,8 +36841,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -35788,8 +36880,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -35821,8 +36919,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -35854,8 +36958,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -35887,8 +36997,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -35920,8 +37036,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -35953,8 +37075,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -35986,8 +37114,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -36019,8 +37153,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -36052,8 +37192,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -36085,8 +37231,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -36118,8 +37270,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -36151,8 +37309,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -36184,8 +37348,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -36217,8 +37387,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -36250,8 +37426,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -36283,8 +37465,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -36316,8 +37504,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -36349,8 +37543,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -36382,8 +37582,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -36415,8 +37621,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -36445,11 +37657,17 @@
         <v>1498.55722452</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -36478,11 +37696,17 @@
         <v>1589.91782452</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -36511,11 +37735,17 @@
         <v>1450.58162452</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -36544,11 +37774,17 @@
         <v>1515.36172452</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -36577,11 +37813,17 @@
         <v>1615.86466361</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -36610,11 +37852,17 @@
         <v>1714.02642452</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -36643,11 +37891,17 @@
         <v>1895.76121478</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -36679,8 +37933,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -36712,8 +37972,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -36745,8 +38011,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -36775,11 +38047,17 @@
         <v>1824.665443489999</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -36808,11 +38086,17 @@
         <v>1740.532580809999</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -36841,11 +38125,17 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -36874,11 +38164,17 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -36907,11 +38203,17 @@
         <v>1792.043780809999</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -36943,8 +38245,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -36976,8 +38284,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -37009,8 +38323,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -37042,8 +38362,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -37075,8 +38401,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -37105,11 +38437,17 @@
         <v>1656.242827039999</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -37138,11 +38476,17 @@
         <v>1820.350927039999</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -37171,11 +38515,17 @@
         <v>1769.329227039999</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -37204,11 +38554,17 @@
         <v>1850.252327039999</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -37237,11 +38593,17 @@
         <v>1825.661627039999</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -37270,11 +38632,17 @@
         <v>1799.020427039999</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -37306,8 +38674,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -37336,11 +38710,17 @@
         <v>1869.266427039999</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -37369,13 +38749,19 @@
         <v>1885.647227039999</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>319300</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L980" t="n">
-        <v>1</v>
+        <v>1.04980739116818</v>
       </c>
       <c r="M980" t="inlineStr"/>
     </row>
@@ -37402,7 +38788,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -37435,7 +38821,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -37468,7 +38854,7 @@
         <v>1921.639927039999</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -37534,7 +38920,7 @@
         <v>1921.603327039999</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -37600,7 +38986,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -37633,7 +39019,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -37666,7 +39052,7 @@
         <v>1994.847027039999</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -37699,7 +39085,7 @@
         <v>2001.354827039999</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -37732,7 +39118,7 @@
         <v>1983.344927039999</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -37765,7 +39151,7 @@
         <v>1991.190927039999</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -37798,7 +39184,7 @@
         <v>1925.760971629999</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -37864,7 +39250,7 @@
         <v>1923.850215579999</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -37897,7 +39283,7 @@
         <v>1923.850215579999</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -37930,7 +39316,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -37963,7 +39349,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -37996,7 +39382,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -38029,7 +39415,7 @@
         <v>1940.072615579999</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -38062,7 +39448,7 @@
         <v>2008.975215579999</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -38095,7 +39481,7 @@
         <v>2042.630615579999</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -38128,7 +39514,7 @@
         <v>2035.277115579999</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -38161,7 +39547,7 @@
         <v>2049.169215579999</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -38194,7 +39580,7 @@
         <v>2278.453015579999</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -38227,7 +39613,7 @@
         <v>2326.939314269999</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -38260,7 +39646,7 @@
         <v>2376.593514269999</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -38293,7 +39679,7 @@
         <v>2373.616514269999</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -38326,7 +39712,7 @@
         <v>2542.883615579999</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -38359,7 +39745,7 @@
         <v>2442.430315579999</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -38392,7 +39778,7 @@
         <v>2425.178415579999</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -38425,7 +39811,7 @@
         <v>2398.868815579999</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -38557,7 +39943,7 @@
         <v>2384.326015579999</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -38590,7 +39976,7 @@
         <v>2390.654515579999</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -38623,7 +40009,7 @@
         <v>2409.004615579999</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -38656,7 +40042,7 @@
         <v>2409.004615579999</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -38689,7 +40075,7 @@
         <v>2409.543915579999</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -38722,7 +40108,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38755,7 +40141,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38788,7 +40174,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38799,6 +40185,6 @@
       <c r="M1023" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>